--- a/description.xlsx
+++ b/description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MegaSync-Kuba\=SoftwareKubyMiszcza\MyCashFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0B0AF0-9122-468B-A7F8-8B92BE3FFE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62334FE8-C06C-4ADA-90D7-3C67498E5D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="N5">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="N6">
-        <v>500</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="N7">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="N8">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -921,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="N9">
-        <v>6000</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="N10">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -985,7 +985,7 @@
         <v>19</v>
       </c>
       <c r="N11">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="N12">
-        <v>15000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1049,7 +1049,7 @@
         <v>25</v>
       </c>
       <c r="N13">
-        <v>200</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="N14">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="N15">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="N16">
-        <v>500</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>30</v>
       </c>
       <c r="N17">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.3">
@@ -1169,7 +1169,7 @@
         <v>31</v>
       </c>
       <c r="N18">
-        <v>200</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
         <v>59</v>
       </c>
       <c r="N19">
-        <v>50</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
         <v>60</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>61</v>
       </c>
       <c r="N21">
-        <v>150</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE79BF4D-929F-4A81-A74A-F3BC3CFDDEE1}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
